--- a/BackTest/2020-01-22 BackTest MBL.xlsx
+++ b/BackTest/2020-01-22 BackTest MBL.xlsx
@@ -2134,14 +2134,10 @@
         <v>-365483.7097</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2171,19 +2167,11 @@
         <v>-365483.7097</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2284,14 +2266,10 @@
         <v>-336181.7097</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2321,19 +2299,11 @@
         <v>-381263.7097</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2362,19 +2332,11 @@
         <v>-381263.7097</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2440,11 +2402,9 @@
         <v>-373495.7097</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>1.817</v>
       </c>
@@ -2481,11 +2441,9 @@
         <v>-341467.7097</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>1.817</v>
       </c>
@@ -2522,14 +2480,10 @@
         <v>-341467.7097</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2559,19 +2513,11 @@
         <v>-386529.7097</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2600,19 +2546,11 @@
         <v>-386529.7097</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -6408,9 +6346,11 @@
         <v>-189658.1913</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.822</v>
+      </c>
       <c r="J161" t="n">
         <v>1.823</v>
       </c>
@@ -22716,7 +22656,7 @@
         <v>193100.2470999999</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22815,7 +22755,7 @@
         <v>198159.2470999999</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22848,7 +22788,7 @@
         <v>167998.2470999999</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22881,7 +22821,7 @@
         <v>128906.2470999999</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22914,7 +22854,7 @@
         <v>173166.2470999999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22947,7 +22887,7 @@
         <v>173166.2470999999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23178,7 +23118,7 @@
         <v>253276.2470999999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23409,7 +23349,7 @@
         <v>525954.7713999999</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -31527,7 +31467,7 @@
         <v>1008838.561149739</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31560,7 +31500,7 @@
         <v>1008838.561149739</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31593,7 +31533,7 @@
         <v>967875.5611497394</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31626,7 +31566,7 @@
         <v>988921.5611497394</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31659,7 +31599,7 @@
         <v>1032249.561149739</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31692,7 +31632,7 @@
         <v>1005937.561149739</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31725,7 +31665,7 @@
         <v>965410.5611497394</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31758,7 +31698,7 @@
         <v>965410.5611497394</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31791,7 +31731,7 @@
         <v>933430.5611497394</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31824,7 +31764,7 @@
         <v>890649.5611497394</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31857,7 +31797,7 @@
         <v>805585.7488497394</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31890,7 +31830,7 @@
         <v>762610.2779497395</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31923,7 +31863,7 @@
         <v>803314.2779497395</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31956,7 +31896,7 @@
         <v>835274.2779497395</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31989,7 +31929,7 @@
         <v>835274.2779497395</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32022,7 +31962,7 @@
         <v>798975.2779497395</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32055,7 +31995,7 @@
         <v>831370.2779497395</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32088,7 +32028,7 @@
         <v>789149.2779497395</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32121,7 +32061,7 @@
         <v>738111.2779497395</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32220,7 +32160,7 @@
         <v>698702.2779497395</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32352,7 +32292,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32385,7 +32325,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32418,7 +32358,7 @@
         <v>675039.5618497395</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32451,7 +32391,7 @@
         <v>718464.5618497395</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32484,7 +32424,7 @@
         <v>765550.5618497395</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32517,7 +32457,7 @@
         <v>765550.5618497395</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32550,7 +32490,7 @@
         <v>719657.5618497395</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32583,7 +32523,7 @@
         <v>719657.5618497395</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32616,7 +32556,7 @@
         <v>623909.4696497396</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32649,7 +32589,7 @@
         <v>598721.4696497396</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32682,7 +32622,7 @@
         <v>598721.4696497396</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32715,7 +32655,7 @@
         <v>576477.4696497396</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32748,7 +32688,7 @@
         <v>617962.4696497396</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32781,7 +32721,7 @@
         <v>574974.4696497396</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32814,7 +32754,7 @@
         <v>574974.4696497396</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32847,7 +32787,7 @@
         <v>529983.4696497396</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32880,7 +32820,7 @@
         <v>572413.4696497396</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32913,7 +32853,7 @@
         <v>572413.4696497396</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32946,7 +32886,7 @@
         <v>532473.4696497396</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32979,7 +32919,7 @@
         <v>532473.4696497396</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33012,7 +32952,7 @@
         <v>561094.4696497396</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33045,7 +32985,7 @@
         <v>561094.4696497396</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33078,7 +33018,7 @@
         <v>523448.4696497396</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33111,7 +33051,7 @@
         <v>523448.4696497396</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33144,7 +33084,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33177,7 +33117,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33210,7 +33150,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33243,7 +33183,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33276,7 +33216,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33309,7 +33249,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33342,7 +33282,7 @@
         <v>462949.9184497396</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33375,7 +33315,7 @@
         <v>652154.7026497396</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33408,7 +33348,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33441,7 +33381,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33474,7 +33414,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33507,7 +33447,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33540,7 +33480,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33573,7 +33513,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33606,7 +33546,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33639,7 +33579,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33672,7 +33612,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33705,7 +33645,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33738,7 +33678,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33771,7 +33711,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33804,7 +33744,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33837,7 +33777,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33870,7 +33810,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33903,7 +33843,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33936,7 +33876,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33969,7 +33909,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34002,7 +33942,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34035,7 +33975,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34068,7 +34008,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34101,7 +34041,7 @@
         <v>612771.7026497396</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34134,7 +34074,7 @@
         <v>567058.6343497395</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34167,7 +34107,7 @@
         <v>522476.6343497395</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34200,7 +34140,7 @@
         <v>376073.2219497395</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34233,7 +34173,7 @@
         <v>417007.2219497395</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34266,7 +34206,7 @@
         <v>388424.2219497395</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34299,7 +34239,7 @@
         <v>410311.2219497395</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34365,7 +34305,7 @@
         <v>425051.2219497395</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34398,7 +34338,7 @@
         <v>425051.2219497395</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34431,7 +34371,7 @@
         <v>387601.2219497395</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34497,7 +34437,7 @@
         <v>645317.3194497395</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34530,7 +34470,7 @@
         <v>674529.3194497395</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34563,7 +34503,7 @@
         <v>674529.3194497395</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34596,7 +34536,7 @@
         <v>695057.3194497395</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34629,7 +34569,7 @@
         <v>649172.3194497395</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34662,7 +34602,7 @@
         <v>627861.3194497395</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34695,7 +34635,7 @@
         <v>627861.3194497395</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34728,7 +34668,7 @@
         <v>587727.3194497395</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34761,7 +34701,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34794,7 +34734,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34827,7 +34767,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34860,7 +34800,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34893,7 +34833,7 @@
         <v>543197.3194497395</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34926,7 +34866,7 @@
         <v>446345.8613497395</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34959,7 +34899,7 @@
         <v>482207.8613497395</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34992,7 +34932,7 @@
         <v>460994.8613497395</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35025,7 +34965,7 @@
         <v>428739.8613497395</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35157,7 +35097,7 @@
         <v>410458.4852497395</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35190,7 +35130,7 @@
         <v>428700.4852497395</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35223,7 +35163,7 @@
         <v>454323.4852497395</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35256,7 +35196,7 @@
         <v>454323.4852497395</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35289,7 +35229,7 @@
         <v>454323.4852497395</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35322,7 +35262,7 @@
         <v>505968.4852497395</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35355,7 +35295,7 @@
         <v>451049.4852497395</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35388,7 +35328,7 @@
         <v>451049.4852497395</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -35421,7 +35361,7 @@
         <v>451049.4852497395</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -35454,7 +35394,7 @@
         <v>406274.4852497395</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -35487,7 +35427,7 @@
         <v>364587.4852497395</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -35520,7 +35460,7 @@
         <v>364587.4852497395</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -35553,7 +35493,7 @@
         <v>425260.2222497396</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -35586,7 +35526,7 @@
         <v>384765.2222497396</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -35619,7 +35559,7 @@
         <v>432379.2222497396</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -35652,7 +35592,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -35685,7 +35625,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35718,7 +35658,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35751,7 +35691,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35784,7 +35724,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35817,7 +35757,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35850,7 +35790,7 @@
         <v>382333.2222497396</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35883,7 +35823,7 @@
         <v>419637.2222497396</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35916,7 +35856,7 @@
         <v>643975.694136343</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35949,7 +35889,7 @@
         <v>620503.694136343</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35982,7 +35922,7 @@
         <v>641021.694136343</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36015,7 +35955,7 @@
         <v>516181.694136343</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36048,7 +35988,7 @@
         <v>467319.694136343</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36081,7 +36021,7 @@
         <v>467319.694136343</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36114,7 +36054,7 @@
         <v>467319.694136343</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36180,7 +36120,7 @@
         <v>458854.694136343</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36213,7 +36153,7 @@
         <v>422949.694136343</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36246,7 +36186,7 @@
         <v>470820.694136343</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36279,7 +36219,7 @@
         <v>493410.694136343</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36312,7 +36252,7 @@
         <v>462171.694136343</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -36345,7 +36285,7 @@
         <v>422431.694136343</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -36378,7 +36318,7 @@
         <v>401812.694136343</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -36411,7 +36351,7 @@
         <v>432688.694136343</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -36444,7 +36384,7 @@
         <v>396721.694136343</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -36477,7 +36417,7 @@
         <v>418863.694136343</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -36510,7 +36450,7 @@
         <v>418863.694136343</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -36543,7 +36483,7 @@
         <v>464016.694136343</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -36576,7 +36516,7 @@
         <v>464016.694136343</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -36609,7 +36549,7 @@
         <v>489395.694136343</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -36642,7 +36582,7 @@
         <v>489395.694136343</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -36675,7 +36615,7 @@
         <v>446493.694136343</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -36708,7 +36648,7 @@
         <v>399805.694136343</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36741,7 +36681,7 @@
         <v>377377.694136343</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36774,7 +36714,7 @@
         <v>377377.694136343</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36840,7 +36780,7 @@
         <v>383369.694136343</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36873,7 +36813,7 @@
         <v>349261.839336343</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -45057,14 +44997,10 @@
         <v>-599314.8563636569</v>
       </c>
       <c r="H1332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1332" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1332" t="n">
-        <v>1.831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1332" t="inlineStr"/>
+      <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr"/>
       <c r="L1332" t="n">
         <v>1</v>
@@ -45097,14 +45033,8 @@
         <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="K1333" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J1333" t="inlineStr"/>
+      <c r="K1333" t="inlineStr"/>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -45133,19 +45063,11 @@
         <v>-599314.8563636569</v>
       </c>
       <c r="H1334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1334" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1334" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="K1334" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1334" t="inlineStr"/>
+      <c r="J1334" t="inlineStr"/>
+      <c r="K1334" t="inlineStr"/>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -45405,14 +45327,10 @@
         <v>-619990.8563636569</v>
       </c>
       <c r="H1342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1342" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1342" t="n">
-        <v>1.831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1342" t="inlineStr"/>
+      <c r="J1342" t="inlineStr"/>
       <c r="K1342" t="inlineStr"/>
       <c r="L1342" t="n">
         <v>1</v>
@@ -45442,19 +45360,11 @@
         <v>-619990.8563636569</v>
       </c>
       <c r="H1343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1343" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1343" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="K1343" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1343" t="inlineStr"/>
+      <c r="J1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr"/>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
